--- a/02_設計/02_画面アクション定義/【フォーマット】画面アクション定義.xlsx
+++ b/02_設計/02_画面アクション定義/【フォーマット】画面アクション定義.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="443" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83497777-3615-40B4-AA9B-FCC3504C761F}"/>
+  <xr:revisionPtr revIDLastSave="447" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE317EA1-D1EF-4184-B626-4930D6702D27}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -967,10 +967,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -992,33 +1019,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2160,7 +2160,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O3" sqref="O3:AQ3"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1"/>
@@ -2169,22 +2169,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.2" customHeight="1" thickTop="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -2219,167 +2219,167 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
-      <c r="AQ1" s="13"/>
+      <c r="AQ1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14"/>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="15"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="26"/>
     </row>
     <row r="4" spans="1:43" ht="22.2" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="22" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="22" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="22" t="s">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="24"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="22"/>
     </row>
     <row r="6" spans="1:43" ht="22.2" customHeight="1">
       <c r="A6" s="8"/>
@@ -3283,8 +3283,6 @@
     </row>
   </sheetData>
   <mergeCells count="123">
-    <mergeCell ref="AG5:AL5"/>
-    <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="S6:W6"/>
     <mergeCell ref="X6:AF6"/>
     <mergeCell ref="AG6:AL6"/>
@@ -3297,6 +3295,16 @@
     <mergeCell ref="I6:L9"/>
     <mergeCell ref="E6:H9"/>
     <mergeCell ref="A6:D9"/>
+    <mergeCell ref="AM7:AQ7"/>
+    <mergeCell ref="S7:W7"/>
+    <mergeCell ref="X7:AF7"/>
+    <mergeCell ref="AG7:AL7"/>
+    <mergeCell ref="S8:W8"/>
+    <mergeCell ref="X8:AF8"/>
+    <mergeCell ref="AG8:AL8"/>
+    <mergeCell ref="AM8:AQ8"/>
+    <mergeCell ref="S9:W9"/>
+    <mergeCell ref="X9:AF9"/>
     <mergeCell ref="Q1:Z1"/>
     <mergeCell ref="Q2:Z2"/>
     <mergeCell ref="A1:L3"/>
@@ -3314,16 +3322,8 @@
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="M3:N3"/>
-    <mergeCell ref="AM7:AQ7"/>
-    <mergeCell ref="S7:W7"/>
-    <mergeCell ref="X7:AF7"/>
-    <mergeCell ref="AG7:AL7"/>
-    <mergeCell ref="S8:W8"/>
-    <mergeCell ref="X8:AF8"/>
-    <mergeCell ref="AG8:AL8"/>
-    <mergeCell ref="AM8:AQ8"/>
-    <mergeCell ref="S9:W9"/>
-    <mergeCell ref="X9:AF9"/>
+    <mergeCell ref="AG5:AL5"/>
+    <mergeCell ref="AM5:AQ5"/>
     <mergeCell ref="AG9:AL9"/>
     <mergeCell ref="AM9:AQ9"/>
     <mergeCell ref="A10:D13"/>
@@ -3424,7 +3424,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:L3"/>
+      <selection pane="bottomLeft" activeCell="Q2" sqref="Q2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="22.2" customHeight="1"/>
@@ -3433,22 +3433,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="22.2" customHeight="1" thickTop="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
       <c r="M1" s="12" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="N1" s="12"/>
       <c r="O1" s="12"/>
@@ -3489,175 +3489,175 @@
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
-      <c r="AQ1" s="13"/>
+      <c r="AQ1" s="23"/>
     </row>
     <row r="2" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="14"/>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14" t="s">
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="AB2" s="14"/>
+      <c r="AB2" s="13"/>
       <c r="AC2" s="43">
         <v>44365</v>
       </c>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="14"/>
-      <c r="AI2" s="14" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13"/>
+      <c r="AI2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="AJ2" s="14"/>
-      <c r="AK2" s="14" t="s">
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="AL2" s="14"/>
-      <c r="AM2" s="14"/>
-      <c r="AN2" s="14"/>
-      <c r="AO2" s="14"/>
-      <c r="AP2" s="14"/>
-      <c r="AQ2" s="15"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13"/>
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="24"/>
     </row>
     <row r="3" spans="1:43" ht="22.2" customHeight="1" thickBot="1">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="18" t="s">
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="16" t="s">
+      <c r="N3" s="27"/>
+      <c r="O3" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="16"/>
-      <c r="X3" s="16"/>
-      <c r="Y3" s="16"/>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16"/>
-      <c r="AC3" s="16"/>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="16"/>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="16"/>
-      <c r="AI3" s="16"/>
-      <c r="AJ3" s="16"/>
-      <c r="AK3" s="16"/>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="16"/>
-      <c r="AN3" s="16"/>
-      <c r="AO3" s="16"/>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="17"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
+      <c r="AB3" s="25"/>
+      <c r="AC3" s="25"/>
+      <c r="AD3" s="25"/>
+      <c r="AE3" s="25"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="25"/>
+      <c r="AH3" s="25"/>
+      <c r="AI3" s="25"/>
+      <c r="AJ3" s="25"/>
+      <c r="AK3" s="25"/>
+      <c r="AL3" s="25"/>
+      <c r="AM3" s="25"/>
+      <c r="AN3" s="25"/>
+      <c r="AO3" s="25"/>
+      <c r="AP3" s="25"/>
+      <c r="AQ3" s="26"/>
     </row>
     <row r="4" spans="1:43" ht="22.2" customHeight="1" thickTop="1"/>
     <row r="5" spans="1:43" ht="22.2" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22" t="s">
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="22" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="22" t="s">
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
-      <c r="S5" s="22" t="s">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="24"/>
-      <c r="X5" s="22" t="s">
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
-      <c r="AG5" s="22" t="s">
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
+      <c r="AB5" s="21"/>
+      <c r="AC5" s="21"/>
+      <c r="AD5" s="21"/>
+      <c r="AE5" s="21"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="23"/>
-      <c r="AI5" s="23"/>
-      <c r="AJ5" s="23"/>
-      <c r="AK5" s="23"/>
-      <c r="AL5" s="24"/>
-      <c r="AM5" s="22" t="s">
+      <c r="AH5" s="21"/>
+      <c r="AI5" s="21"/>
+      <c r="AJ5" s="21"/>
+      <c r="AK5" s="21"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AN5" s="23"/>
-      <c r="AO5" s="23"/>
-      <c r="AP5" s="23"/>
-      <c r="AQ5" s="24"/>
+      <c r="AN5" s="21"/>
+      <c r="AO5" s="21"/>
+      <c r="AP5" s="21"/>
+      <c r="AQ5" s="22"/>
     </row>
     <row r="6" spans="1:43" ht="22.2" customHeight="1">
       <c r="A6" s="8" t="s">
